--- a/testdata/robot_CDC_NIDRS_login.xlsx
+++ b/testdata/robot_CDC_NIDRS_login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCodes\test_RobotFramework\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9674F1D8-8D5B-4786-81CD-67954ED5C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC69573-7BCF-428E-AB2E-7DDF0E253C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="160" windowWidth="12270" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -45,43 +45,52 @@
     <t>MED</t>
   </si>
   <si>
+    <t>臺北市立聯合醫院中興院區</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>PHB</t>
+  </si>
+  <si>
+    <t>DCC</t>
+  </si>
+  <si>
+    <t>松山區健康服務中心</t>
+  </si>
+  <si>
+    <t>台北市政府衛生局</t>
+  </si>
+  <si>
+    <t>臺北區管制中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>疫情中心</t>
-  </si>
-  <si>
-    <t>臺北市立聯合醫院中興院區</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>PHO</t>
-  </si>
-  <si>
-    <t>PHB</t>
-  </si>
-  <si>
-    <t>DCC</t>
-  </si>
-  <si>
-    <t>松山區健康服務中心</t>
-  </si>
-  <si>
-    <t>台北市政府衛生局</t>
-  </si>
-  <si>
-    <t>臺北區管制中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -390,15 +399,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -423,52 +432,52 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>123</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
       </c>
       <c r="B4">
         <v>123</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
       </c>
       <c r="B5">
         <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -479,10 +488,11 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/testdata/robot_CDC_NIDRS_login.xlsx
+++ b/testdata/robot_CDC_NIDRS_login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC69573-7BCF-428E-AB2E-7DDF0E253C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E68153-2F5C-4037-A863-172246CD11C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="160" windowWidth="12270" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="690" windowWidth="9960" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>User</t>
   </si>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>疫情中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,98 +400,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>123</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>123</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>123</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>123</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>123</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
     </row>
